--- a/Document/10.ProjectSprintBacklog.xlsx
+++ b/Document/10.ProjectSprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_Document\Document_DaSua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A20AD67-BBE3-406E-A192-66B6B540C471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F13EC3-0106-4C77-96B1-617ABF6BA148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -1340,6 +1340,44 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,59 +1396,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1420,16 +1405,52 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1459,29 +1480,8 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5010,10 +5010,10 @@
       <xdr:rowOff>179293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209176</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>59764</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266095</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5053,8 +5053,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>68239</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>109496</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5383,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67:F67"/>
+    <sheetView topLeftCell="A85" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W108" sqref="W108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -5411,10 +5411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="50.4">
-      <c r="A1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
       <c r="C1" s="39" t="s">
         <v>215</v>
       </c>
@@ -5424,10 +5424,10 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.399999999999999" thickBot="1">
-      <c r="A2" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="43"/>
       <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
@@ -5437,10 +5437,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="17.399999999999999" thickBot="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="16">
         <v>45934</v>
       </c>
@@ -5450,22 +5450,22 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="16">
         <v>45950</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1"/>
     <row r="6" spans="1:25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:25" ht="17.399999999999999" thickBot="1">
       <c r="B7" s="21" t="s">
@@ -5546,10 +5546,10 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="17.399999999999999" thickBot="1">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="23">
         <f ca="1">SUM(D8:D11)</f>
         <v>137</v>
@@ -5566,14 +5566,14 @@
       <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="25" t="s">
         <v>11</v>
       </c>
@@ -5633,18 +5633,18 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="52" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="26">
         <v>8</v>
       </c>
@@ -5704,16 +5704,16 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="51" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="26">
         <v>8</v>
       </c>
@@ -5773,16 +5773,16 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="51" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="26">
         <v>8</v>
       </c>
@@ -5842,18 +5842,18 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="51" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="26">
         <v>1</v>
       </c>
@@ -5913,16 +5913,16 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="53" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="51" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="26">
         <v>1</v>
       </c>
@@ -5982,16 +5982,16 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="53" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="51" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="26">
         <v>1</v>
       </c>
@@ -6051,16 +6051,16 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="53" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="26">
         <v>1</v>
       </c>
@@ -6120,16 +6120,16 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="53" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="51" t="s">
+      <c r="D22" s="46"/>
+      <c r="E22" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="26">
         <v>1</v>
       </c>
@@ -6189,16 +6189,16 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="53" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="51" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="26">
         <v>1</v>
       </c>
@@ -6258,16 +6258,16 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="57" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="51" t="s">
+      <c r="D24" s="50"/>
+      <c r="E24" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="26">
         <v>1</v>
       </c>
@@ -6327,16 +6327,16 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="57" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="55" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="26">
         <v>1</v>
       </c>
@@ -6396,16 +6396,16 @@
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="53" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="51" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="26">
         <v>8</v>
       </c>
@@ -6465,12 +6465,12 @@
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
@@ -6494,18 +6494,18 @@
       <c r="Y27" s="26"/>
     </row>
     <row r="28" spans="1:25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="55" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="56"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="26">
         <v>1</v>
       </c>
@@ -6565,16 +6565,16 @@
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="53" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="55" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F29" s="56"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="26">
         <v>1</v>
       </c>
@@ -6634,16 +6634,16 @@
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="53" t="s">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="55" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="56"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="26">
         <v>1</v>
       </c>
@@ -6703,16 +6703,16 @@
       </c>
     </row>
     <row r="31" spans="1:25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="53" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="55" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="26">
         <v>1</v>
       </c>
@@ -6772,16 +6772,16 @@
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="53" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="55" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="26">
         <v>1</v>
       </c>
@@ -6841,16 +6841,16 @@
       </c>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="53" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="55" t="s">
+      <c r="D33" s="46"/>
+      <c r="E33" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="26">
         <v>1</v>
       </c>
@@ -6913,16 +6913,16 @@
       </c>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="57" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="55" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="26">
         <v>2</v>
       </c>
@@ -6982,16 +6982,16 @@
       </c>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="57" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="55" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="26">
         <v>1</v>
       </c>
@@ -7051,12 +7051,12 @@
       </c>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
@@ -7080,16 +7080,16 @@
       <c r="Y36" s="26"/>
     </row>
     <row r="37" spans="1:31">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="53" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="51" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="F37" s="52"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="26">
         <v>5</v>
       </c>
@@ -7149,12 +7149,12 @@
       </c>
     </row>
     <row r="38" spans="1:31">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
       <c r="I38" s="26"/>
@@ -7178,18 +7178,18 @@
       <c r="Y38" s="26"/>
     </row>
     <row r="39" spans="1:31">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="51" t="s">
+      <c r="D39" s="46"/>
+      <c r="E39" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="26">
         <v>2</v>
       </c>
@@ -7249,16 +7249,16 @@
       </c>
     </row>
     <row r="40" spans="1:31">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="53" t="s">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="51" t="s">
+      <c r="D40" s="46"/>
+      <c r="E40" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="26">
         <v>2</v>
       </c>
@@ -7318,16 +7318,16 @@
       </c>
     </row>
     <row r="41" spans="1:31">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="53" t="s">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="51" t="s">
+      <c r="D41" s="46"/>
+      <c r="E41" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="52"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="26">
         <v>2</v>
       </c>
@@ -7387,16 +7387,16 @@
       </c>
     </row>
     <row r="42" spans="1:31">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="53" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="51" t="s">
+      <c r="D42" s="46"/>
+      <c r="E42" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="26">
         <v>2</v>
       </c>
@@ -7456,16 +7456,16 @@
       </c>
     </row>
     <row r="43" spans="1:31">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="53" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="51" t="s">
+      <c r="D43" s="46"/>
+      <c r="E43" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="52"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="26">
         <v>2</v>
       </c>
@@ -7525,12 +7525,12 @@
       </c>
     </row>
     <row r="44" spans="1:31">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
@@ -7554,16 +7554,16 @@
       <c r="Y44" s="26"/>
     </row>
     <row r="45" spans="1:31">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="53" t="s">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51" t="s">
+      <c r="D45" s="46"/>
+      <c r="E45" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="52"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="26">
         <v>3</v>
       </c>
@@ -7623,12 +7623,12 @@
       </c>
     </row>
     <row r="46" spans="1:31">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
@@ -7652,16 +7652,16 @@
       <c r="Y46" s="26"/>
     </row>
     <row r="47" spans="1:31">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="53" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="51" t="s">
+      <c r="D47" s="46"/>
+      <c r="E47" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F47" s="52"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="26">
         <v>4</v>
       </c>
@@ -7721,16 +7721,16 @@
       </c>
     </row>
     <row r="48" spans="1:31">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="53" t="s">
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="51" t="s">
+      <c r="D48" s="46"/>
+      <c r="E48" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F48" s="52"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="26">
         <v>4</v>
       </c>
@@ -7790,16 +7790,16 @@
       </c>
     </row>
     <row r="49" spans="1:25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="53" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="51" t="s">
+      <c r="D49" s="46"/>
+      <c r="E49" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F49" s="52"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="26">
         <v>4</v>
       </c>
@@ -7859,16 +7859,16 @@
       </c>
     </row>
     <row r="50" spans="1:25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="51" t="s">
+      <c r="D50" s="46"/>
+      <c r="E50" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F50" s="52"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="26">
         <v>4</v>
       </c>
@@ -7928,16 +7928,16 @@
       </c>
     </row>
     <row r="51" spans="1:25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="53" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="51" t="s">
+      <c r="D51" s="46"/>
+      <c r="E51" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="47"/>
       <c r="G51" s="26">
         <v>4</v>
       </c>
@@ -7997,16 +7997,16 @@
       </c>
     </row>
     <row r="52" spans="1:25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="51" t="s">
+      <c r="D52" s="46"/>
+      <c r="E52" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F52" s="52"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="26">
         <v>4</v>
       </c>
@@ -8066,16 +8066,16 @@
       </c>
     </row>
     <row r="53" spans="1:25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="53" t="s">
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="51" t="s">
+      <c r="D53" s="46"/>
+      <c r="E53" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F53" s="52"/>
+      <c r="F53" s="47"/>
       <c r="G53" s="26">
         <v>2</v>
       </c>
@@ -8135,16 +8135,16 @@
       </c>
     </row>
     <row r="54" spans="1:25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="53" t="s">
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="51" t="s">
+      <c r="D54" s="46"/>
+      <c r="E54" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="52"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="26">
         <v>2</v>
       </c>
@@ -8204,16 +8204,16 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="53" t="s">
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="51" t="s">
+      <c r="D55" s="46"/>
+      <c r="E55" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F55" s="52"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="26">
         <v>2</v>
       </c>
@@ -8273,16 +8273,16 @@
       </c>
     </row>
     <row r="56" spans="1:25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="53" t="s">
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="51" t="s">
+      <c r="D56" s="46"/>
+      <c r="E56" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F56" s="52"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="26">
         <v>2</v>
       </c>
@@ -8342,13 +8342,13 @@
       </c>
     </row>
     <row r="57" spans="1:25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="53" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="59" t="s">
+      <c r="D57" s="46"/>
+      <c r="E57" s="53" t="s">
         <v>225</v>
       </c>
       <c r="F57" s="54"/>
@@ -8411,12 +8411,12 @@
       </c>
     </row>
     <row r="58" spans="1:25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
       <c r="I58" s="26"/>
@@ -8440,18 +8440,18 @@
       <c r="Y58" s="26"/>
     </row>
     <row r="59" spans="1:25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44" t="s">
+      <c r="A59" s="58"/>
+      <c r="B59" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="51" t="s">
+      <c r="D59" s="46"/>
+      <c r="E59" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F59" s="52"/>
+      <c r="F59" s="47"/>
       <c r="G59" s="26">
         <v>1</v>
       </c>
@@ -8511,16 +8511,16 @@
       </c>
     </row>
     <row r="60" spans="1:25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="53" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="53"/>
-      <c r="E60" s="55" t="s">
+      <c r="D60" s="46"/>
+      <c r="E60" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F60" s="56"/>
+      <c r="F60" s="52"/>
       <c r="G60" s="26">
         <v>1</v>
       </c>
@@ -8580,16 +8580,16 @@
       </c>
     </row>
     <row r="61" spans="1:25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="53" t="s">
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="51" t="s">
+      <c r="D61" s="46"/>
+      <c r="E61" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="52"/>
+      <c r="F61" s="47"/>
       <c r="G61" s="26">
         <v>1</v>
       </c>
@@ -8649,16 +8649,16 @@
       </c>
     </row>
     <row r="62" spans="1:25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="53" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="51" t="s">
+      <c r="D62" s="46"/>
+      <c r="E62" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="52"/>
+      <c r="F62" s="47"/>
       <c r="G62" s="26">
         <v>2</v>
       </c>
@@ -8718,16 +8718,16 @@
       </c>
     </row>
     <row r="63" spans="1:25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="53" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="55" t="s">
+      <c r="D63" s="46"/>
+      <c r="E63" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F63" s="56"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="26">
         <v>1</v>
       </c>
@@ -8787,16 +8787,16 @@
       </c>
     </row>
     <row r="64" spans="1:25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="57" t="s">
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="51" t="s">
+      <c r="D64" s="50"/>
+      <c r="E64" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F64" s="52"/>
+      <c r="F64" s="47"/>
       <c r="G64" s="26">
         <v>1</v>
       </c>
@@ -8856,16 +8856,16 @@
       </c>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="57" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="51" t="s">
+      <c r="D65" s="50"/>
+      <c r="E65" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F65" s="52"/>
+      <c r="F65" s="47"/>
       <c r="G65" s="26">
         <v>1</v>
       </c>
@@ -8925,16 +8925,16 @@
       </c>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="53" t="s">
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="51" t="s">
+      <c r="D66" s="46"/>
+      <c r="E66" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F66" s="52"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="26">
         <v>1</v>
       </c>
@@ -8994,18 +8994,18 @@
       </c>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="51" t="s">
+      <c r="D67" s="46"/>
+      <c r="E67" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F67" s="52"/>
+      <c r="F67" s="47"/>
       <c r="G67" s="26">
         <v>1</v>
       </c>
@@ -9065,16 +9065,16 @@
       </c>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="53" t="s">
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="51" t="s">
+      <c r="D68" s="46"/>
+      <c r="E68" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F68" s="52"/>
+      <c r="F68" s="47"/>
       <c r="G68" s="26">
         <v>1</v>
       </c>
@@ -9134,16 +9134,16 @@
       </c>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="53" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="51" t="s">
+      <c r="D69" s="46"/>
+      <c r="E69" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F69" s="52"/>
+      <c r="F69" s="47"/>
       <c r="G69" s="26">
         <v>1</v>
       </c>
@@ -9203,16 +9203,16 @@
       </c>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="53" t="s">
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="51" t="s">
+      <c r="D70" s="46"/>
+      <c r="E70" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F70" s="52"/>
+      <c r="F70" s="47"/>
       <c r="G70" s="26">
         <v>2</v>
       </c>
@@ -9272,16 +9272,16 @@
       </c>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="49" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="51" t="s">
+      <c r="D71" s="56"/>
+      <c r="E71" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F71" s="52"/>
+      <c r="F71" s="47"/>
       <c r="G71" s="26">
         <v>1</v>
       </c>
@@ -9341,16 +9341,16 @@
       </c>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="49" t="s">
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="50"/>
-      <c r="E72" s="51" t="s">
+      <c r="D72" s="56"/>
+      <c r="E72" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F72" s="52"/>
+      <c r="F72" s="47"/>
       <c r="G72" s="26">
         <v>1</v>
       </c>
@@ -9410,16 +9410,16 @@
       </c>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="53" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="51" t="s">
+      <c r="D73" s="46"/>
+      <c r="E73" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F73" s="52"/>
+      <c r="F73" s="47"/>
       <c r="G73" s="26">
         <v>1</v>
       </c>
@@ -9479,16 +9479,16 @@
       </c>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="53" t="s">
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="51" t="s">
+      <c r="D74" s="46"/>
+      <c r="E74" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F74" s="52"/>
+      <c r="F74" s="47"/>
       <c r="G74" s="26">
         <v>1</v>
       </c>
@@ -9548,18 +9548,18 @@
       </c>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="51" t="s">
+      <c r="D75" s="46"/>
+      <c r="E75" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F75" s="52"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="26">
         <v>1</v>
       </c>
@@ -9619,16 +9619,16 @@
       </c>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="53" t="s">
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="53"/>
-      <c r="E76" s="55" t="s">
+      <c r="D76" s="46"/>
+      <c r="E76" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F76" s="56"/>
+      <c r="F76" s="52"/>
       <c r="G76" s="26">
         <v>1</v>
       </c>
@@ -9691,16 +9691,16 @@
       </c>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="53" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="51" t="s">
+      <c r="D77" s="46"/>
+      <c r="E77" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F77" s="52"/>
+      <c r="F77" s="47"/>
       <c r="G77" s="26">
         <v>2</v>
       </c>
@@ -9760,16 +9760,16 @@
       </c>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="53" t="s">
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="51" t="s">
+      <c r="D78" s="46"/>
+      <c r="E78" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F78" s="52"/>
+      <c r="F78" s="47"/>
       <c r="G78" s="26">
         <v>2</v>
       </c>
@@ -9829,16 +9829,16 @@
       </c>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="53" t="s">
+      <c r="A79" s="58"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="55" t="s">
+      <c r="D79" s="46"/>
+      <c r="E79" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F79" s="56"/>
+      <c r="F79" s="52"/>
       <c r="G79" s="26">
         <v>2</v>
       </c>
@@ -9898,16 +9898,16 @@
       </c>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="58"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="51" t="s">
+      <c r="D80" s="56"/>
+      <c r="E80" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F80" s="52"/>
+      <c r="F80" s="47"/>
       <c r="G80" s="26">
         <v>2</v>
       </c>
@@ -9967,16 +9967,16 @@
       </c>
     </row>
     <row r="81" spans="1:25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="49" t="s">
+      <c r="A81" s="58"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="51" t="s">
+      <c r="D81" s="56"/>
+      <c r="E81" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F81" s="52"/>
+      <c r="F81" s="47"/>
       <c r="G81" s="26">
         <v>2</v>
       </c>
@@ -10036,16 +10036,16 @@
       </c>
     </row>
     <row r="82" spans="1:25">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="53" t="s">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="51" t="s">
+      <c r="D82" s="46"/>
+      <c r="E82" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F82" s="52"/>
+      <c r="F82" s="47"/>
       <c r="G82" s="26">
         <v>2</v>
       </c>
@@ -10105,14 +10105,14 @@
       </c>
     </row>
     <row r="83" spans="1:25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="53"/>
+      <c r="D83" s="46"/>
       <c r="E83" s="54" t="s">
         <v>19</v>
       </c>
@@ -10176,12 +10176,12 @@
       </c>
     </row>
     <row r="84" spans="1:25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="53" t="s">
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="53"/>
+      <c r="D84" s="46"/>
       <c r="E84" s="54" t="s">
         <v>19</v>
       </c>
@@ -10245,21 +10245,21 @@
       </c>
     </row>
     <row r="85" spans="1:25">
-      <c r="A85" s="44"/>
-      <c r="B85" s="48" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="43" t="s">
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43">
+      <c r="F85" s="57"/>
+      <c r="G85" s="57">
         <f>SUM(G15:G84)</f>
         <v>145</v>
       </c>
-      <c r="H85" s="43"/>
+      <c r="H85" s="57"/>
       <c r="I85" s="26">
         <f t="shared" ref="I85:M85" si="0">SUM(I15:I84)</f>
         <v>134</v>
@@ -10329,19 +10329,19 @@
       </c>
     </row>
     <row r="86" spans="1:25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="43" t="s">
+      <c r="A86" s="58"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43">
+      <c r="F86" s="57"/>
+      <c r="G86" s="57">
         <f>SUM(H15:H84)</f>
         <v>158</v>
       </c>
-      <c r="H86" s="43"/>
+      <c r="H86" s="57"/>
       <c r="I86" s="26">
         <f t="shared" ref="I86:X86" si="2">SUM(I15:I84)</f>
         <v>134</v>
@@ -10412,143 +10412,6 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="G86:H86"/>
@@ -10573,6 +10436,143 @@
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10584,8 +10584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="52" workbookViewId="0">
-      <selection activeCell="AG44" sqref="AG44"/>
+    <sheetView topLeftCell="B85" zoomScale="59" workbookViewId="0">
+      <selection activeCell="Z121" sqref="Z121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10604,10 +10604,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="50.4">
-      <c r="A1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
       <c r="C1" s="39" t="s">
         <v>215</v>
       </c>
@@ -10618,10 +10618,10 @@
       </c>
     </row>
     <row r="2" spans="1:59" ht="16.8">
-      <c r="A2" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="43"/>
       <c r="C2" s="13" t="s">
         <v>84</v>
       </c>
@@ -10632,10 +10632,10 @@
       </c>
     </row>
     <row r="3" spans="1:59" ht="16.8">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="16">
         <v>45951</v>
       </c>
@@ -10646,10 +10646,10 @@
       </c>
     </row>
     <row r="4" spans="1:59" ht="18" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="16">
         <v>45967</v>
       </c>
@@ -10671,12 +10671,12 @@
     </row>
     <row r="6" spans="1:59" ht="16.8">
       <c r="A6" s="10"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:59" ht="16.8">
       <c r="A7" s="10"/>
@@ -10763,10 +10763,10 @@
     </row>
     <row r="12" spans="1:59" ht="16.8">
       <c r="A12" s="10"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="23">
         <f ca="1">SUM(D8:D11)</f>
         <v>151</v>
@@ -10783,14 +10783,14 @@
       <c r="B14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70" t="s">
+      <c r="D14" s="65"/>
+      <c r="E14" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="25" t="s">
         <v>11</v>
       </c>
@@ -10879,18 +10879,18 @@
       <c r="BG14" s="35"/>
     </row>
     <row r="15" spans="1:59" ht="16.8">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="52" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="26">
         <v>10</v>
       </c>
@@ -10950,16 +10950,16 @@
       </c>
     </row>
     <row r="16" spans="1:59" ht="16.8">
-      <c r="A16" s="44"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="51" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="26">
         <v>4</v>
       </c>
@@ -11019,12 +11019,12 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="16.8">
-      <c r="A17" s="44"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -11047,16 +11047,16 @@
       <c r="Y17" s="26"/>
     </row>
     <row r="18" spans="1:25" ht="16.8">
-      <c r="A18" s="44"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="51" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="26">
         <v>4</v>
       </c>
@@ -11116,18 +11116,18 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="17.25" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="51" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="26">
         <v>2</v>
       </c>
@@ -11187,16 +11187,16 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="16.8">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="53" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="51" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="26">
         <v>2</v>
       </c>
@@ -11256,16 +11256,16 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="16.8">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="53" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="26">
         <v>2</v>
       </c>
@@ -11325,16 +11325,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="16.8">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="53" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="51" t="s">
+      <c r="D22" s="46"/>
+      <c r="E22" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="26">
         <v>2</v>
       </c>
@@ -11394,16 +11394,16 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="16.8">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="53" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="51" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="26">
         <v>1</v>
       </c>
@@ -11463,16 +11463,16 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="16.8">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="53" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="51" t="s">
+      <c r="D24" s="46"/>
+      <c r="E24" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="26">
         <v>1</v>
       </c>
@@ -11532,16 +11532,16 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="16.8">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="49" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="55" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="26">
         <v>1</v>
       </c>
@@ -11601,16 +11601,16 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="16.8">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="57" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="51" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="26">
         <v>1</v>
       </c>
@@ -11670,16 +11670,16 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="16.8">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="57" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="55" t="s">
+      <c r="D27" s="50"/>
+      <c r="E27" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="26">
         <v>2</v>
       </c>
@@ -11739,12 +11739,12 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="16.8">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="56"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
@@ -11768,16 +11768,16 @@
       <c r="Y28" s="26"/>
     </row>
     <row r="29" spans="1:25" ht="16.8">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="53" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="51" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="52"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="26">
         <v>10</v>
       </c>
@@ -11837,12 +11837,12 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="16.8">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
@@ -11866,18 +11866,18 @@
       <c r="Y30" s="26"/>
     </row>
     <row r="31" spans="1:25" ht="16.8">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="51" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="26">
         <v>1</v>
       </c>
@@ -11937,16 +11937,16 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.8">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="53" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="51" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="26">
         <v>1</v>
       </c>
@@ -12006,12 +12006,12 @@
       </c>
     </row>
     <row r="33" spans="1:25" ht="16.8">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
@@ -12035,16 +12035,16 @@
       <c r="Y33" s="26"/>
     </row>
     <row r="34" spans="1:25" ht="16.8">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="51" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="26">
         <v>1</v>
       </c>
@@ -12104,16 +12104,16 @@
       </c>
     </row>
     <row r="35" spans="1:25" ht="16.8">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="53" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="51" t="s">
+      <c r="D35" s="46"/>
+      <c r="E35" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="26">
         <v>1</v>
       </c>
@@ -12173,16 +12173,16 @@
       </c>
     </row>
     <row r="36" spans="1:25" ht="16.8">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="53" t="s">
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="51" t="s">
+      <c r="D36" s="46"/>
+      <c r="E36" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="26">
         <v>1</v>
       </c>
@@ -12242,16 +12242,16 @@
       </c>
     </row>
     <row r="37" spans="1:25" ht="16.8">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="57" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="51" t="s">
+      <c r="D37" s="50"/>
+      <c r="E37" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="52"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="26">
         <v>1</v>
       </c>
@@ -12311,16 +12311,16 @@
       </c>
     </row>
     <row r="38" spans="1:25" ht="16.8">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="53" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="51" t="s">
+      <c r="D38" s="46"/>
+      <c r="E38" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F38" s="52"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="26">
         <v>1</v>
       </c>
@@ -12380,16 +12380,16 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="16.8">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="55" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="26">
         <v>1</v>
       </c>
@@ -12449,16 +12449,16 @@
       </c>
     </row>
     <row r="40" spans="1:25" ht="16.8">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="53" t="s">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="51" t="s">
+      <c r="D40" s="46"/>
+      <c r="E40" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="26">
         <v>8</v>
       </c>
@@ -12518,12 +12518,12 @@
       </c>
     </row>
     <row r="41" spans="1:25" ht="16.8">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
@@ -12549,18 +12549,18 @@
       <c r="Y41" s="26"/>
     </row>
     <row r="42" spans="1:25" ht="16.8">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="51" t="s">
+      <c r="D42" s="46"/>
+      <c r="E42" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="26">
         <v>1</v>
       </c>
@@ -12620,12 +12620,12 @@
       </c>
     </row>
     <row r="43" spans="1:25" ht="16.8">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26"/>
@@ -12649,16 +12649,16 @@
       <c r="Y43" s="26"/>
     </row>
     <row r="44" spans="1:25" ht="16.8">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="53" t="s">
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="51" t="s">
+      <c r="D44" s="46"/>
+      <c r="E44" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="52"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="26">
         <v>2</v>
       </c>
@@ -12718,16 +12718,16 @@
       </c>
     </row>
     <row r="45" spans="1:25" ht="16.8">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="53" t="s">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51" t="s">
+      <c r="D45" s="46"/>
+      <c r="E45" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F45" s="52"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="26">
         <v>2</v>
       </c>
@@ -12787,16 +12787,16 @@
       </c>
     </row>
     <row r="46" spans="1:25" ht="16.8">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="53" t="s">
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="51" t="s">
+      <c r="D46" s="46"/>
+      <c r="E46" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="26">
         <v>3</v>
       </c>
@@ -12856,12 +12856,12 @@
       </c>
     </row>
     <row r="47" spans="1:25" ht="16.8">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -12885,16 +12885,16 @@
       <c r="Y47" s="26"/>
     </row>
     <row r="48" spans="1:25" ht="16.8">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="53" t="s">
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="51" t="s">
+      <c r="D48" s="46"/>
+      <c r="E48" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F48" s="52"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="26">
         <v>2</v>
       </c>
@@ -12954,16 +12954,16 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="16.8">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="53" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="51" t="s">
+      <c r="D49" s="46"/>
+      <c r="E49" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F49" s="52"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="26">
         <v>2</v>
       </c>
@@ -13023,16 +13023,16 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="16.8">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="51" t="s">
+      <c r="D50" s="46"/>
+      <c r="E50" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F50" s="52"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="26">
         <v>2</v>
       </c>
@@ -13092,16 +13092,16 @@
       </c>
     </row>
     <row r="51" spans="1:25" ht="16.8">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="53" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="51" t="s">
+      <c r="D51" s="46"/>
+      <c r="E51" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="47"/>
       <c r="G51" s="26">
         <v>2</v>
       </c>
@@ -13161,16 +13161,16 @@
       </c>
     </row>
     <row r="52" spans="1:25" ht="16.8">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="51" t="s">
+      <c r="D52" s="46"/>
+      <c r="E52" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F52" s="52"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="26">
         <v>3</v>
       </c>
@@ -13230,12 +13230,12 @@
       </c>
     </row>
     <row r="53" spans="1:25" ht="16.8">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
       <c r="I53" s="26"/>
@@ -13259,16 +13259,16 @@
       <c r="Y53" s="26"/>
     </row>
     <row r="54" spans="1:25" ht="16.8">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="53" t="s">
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="51" t="s">
+      <c r="D54" s="46"/>
+      <c r="E54" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="52"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="26">
         <v>4</v>
       </c>
@@ -13328,16 +13328,16 @@
       </c>
     </row>
     <row r="55" spans="1:25" ht="16.8">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="53" t="s">
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="53"/>
-      <c r="E55" s="51" t="s">
+      <c r="D55" s="46"/>
+      <c r="E55" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F55" s="52"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="26">
         <v>2</v>
       </c>
@@ -13397,16 +13397,16 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="16.8">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="53" t="s">
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="51" t="s">
+      <c r="D56" s="46"/>
+      <c r="E56" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F56" s="52"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="26">
         <v>3</v>
       </c>
@@ -13466,16 +13466,16 @@
       </c>
     </row>
     <row r="57" spans="1:25" ht="16.8">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="53" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="65" t="s">
+      <c r="D57" s="46"/>
+      <c r="E57" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="63"/>
+      <c r="F57" s="69"/>
       <c r="G57" s="26">
         <v>3</v>
       </c>
@@ -13535,16 +13535,16 @@
       </c>
     </row>
     <row r="58" spans="1:25" ht="16.8">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="53" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="53"/>
-      <c r="E58" s="51" t="s">
+      <c r="D58" s="46"/>
+      <c r="E58" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="52"/>
+      <c r="F58" s="47"/>
       <c r="G58" s="26">
         <v>3</v>
       </c>
@@ -13604,16 +13604,16 @@
       </c>
     </row>
     <row r="59" spans="1:25" ht="16.8">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="53" t="s">
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="51" t="s">
+      <c r="D59" s="46"/>
+      <c r="E59" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="F59" s="52"/>
+      <c r="F59" s="47"/>
       <c r="G59" s="26">
         <v>3</v>
       </c>
@@ -13673,16 +13673,16 @@
       </c>
     </row>
     <row r="60" spans="1:25" ht="16.8">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="53" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="53"/>
-      <c r="E60" s="51" t="s">
+      <c r="D60" s="46"/>
+      <c r="E60" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F60" s="52"/>
+      <c r="F60" s="47"/>
       <c r="G60" s="26">
         <v>2</v>
       </c>
@@ -13742,12 +13742,12 @@
       </c>
     </row>
     <row r="61" spans="1:25" ht="16.8">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
       <c r="I61" s="26"/>
@@ -13771,16 +13771,16 @@
       <c r="Y61" s="26"/>
     </row>
     <row r="62" spans="1:25" ht="16.8">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="53" t="s">
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="51" t="s">
+      <c r="D62" s="46"/>
+      <c r="E62" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="F62" s="52"/>
+      <c r="F62" s="47"/>
       <c r="G62" s="26">
         <v>10</v>
       </c>
@@ -13840,18 +13840,18 @@
       </c>
     </row>
     <row r="63" spans="1:25" ht="16.8">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="51" t="s">
+      <c r="D63" s="46"/>
+      <c r="E63" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F63" s="52"/>
+      <c r="F63" s="47"/>
       <c r="G63" s="26">
         <v>1</v>
       </c>
@@ -13911,16 +13911,16 @@
       </c>
     </row>
     <row r="64" spans="1:25" ht="16.8">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="53" t="s">
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="51" t="s">
+      <c r="D64" s="46"/>
+      <c r="E64" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F64" s="52"/>
+      <c r="F64" s="47"/>
       <c r="G64" s="26">
         <v>1</v>
       </c>
@@ -13980,16 +13980,16 @@
       </c>
     </row>
     <row r="65" spans="1:25" ht="16.8">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="49" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="51" t="s">
+      <c r="D65" s="56"/>
+      <c r="E65" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F65" s="52"/>
+      <c r="F65" s="47"/>
       <c r="G65" s="26">
         <v>1</v>
       </c>
@@ -14049,16 +14049,16 @@
       </c>
     </row>
     <row r="66" spans="1:25" ht="16.8">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="53" t="s">
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="53"/>
-      <c r="E66" s="51" t="s">
+      <c r="D66" s="46"/>
+      <c r="E66" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F66" s="52"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="26">
         <v>1</v>
       </c>
@@ -14118,16 +14118,16 @@
       </c>
     </row>
     <row r="67" spans="1:25" ht="16.8">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="53" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="53"/>
-      <c r="E67" s="51" t="s">
+      <c r="D67" s="46"/>
+      <c r="E67" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F67" s="52"/>
+      <c r="F67" s="47"/>
       <c r="G67" s="26">
         <v>1</v>
       </c>
@@ -14185,16 +14185,16 @@
       <c r="Y67" s="26"/>
     </row>
     <row r="68" spans="1:25" ht="16.8">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="53" t="s">
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="51" t="s">
+      <c r="D68" s="46"/>
+      <c r="E68" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F68" s="52"/>
+      <c r="F68" s="47"/>
       <c r="G68" s="26">
         <v>1</v>
       </c>
@@ -14254,16 +14254,16 @@
       </c>
     </row>
     <row r="69" spans="1:25" ht="16.8">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="53" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="51" t="s">
+      <c r="D69" s="46"/>
+      <c r="E69" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F69" s="52"/>
+      <c r="F69" s="47"/>
       <c r="G69" s="26">
         <v>1</v>
       </c>
@@ -14323,16 +14323,16 @@
       </c>
     </row>
     <row r="70" spans="1:25" ht="16.8">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="53" t="s">
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="51" t="s">
+      <c r="D70" s="46"/>
+      <c r="E70" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F70" s="52"/>
+      <c r="F70" s="47"/>
       <c r="G70" s="26">
         <v>1</v>
       </c>
@@ -14392,18 +14392,18 @@
       </c>
     </row>
     <row r="71" spans="1:25" ht="16.8">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="53"/>
-      <c r="E71" s="51" t="s">
+      <c r="D71" s="46"/>
+      <c r="E71" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F71" s="52"/>
+      <c r="F71" s="47"/>
       <c r="G71" s="26">
         <v>1</v>
       </c>
@@ -14463,16 +14463,16 @@
       </c>
     </row>
     <row r="72" spans="1:25" ht="16.8">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="53" t="s">
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="53"/>
-      <c r="E72" s="51" t="s">
+      <c r="D72" s="46"/>
+      <c r="E72" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F72" s="52"/>
+      <c r="F72" s="47"/>
       <c r="G72" s="26">
         <v>2</v>
       </c>
@@ -14532,16 +14532,16 @@
       </c>
     </row>
     <row r="73" spans="1:25" ht="16.8">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="53" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="51" t="s">
+      <c r="D73" s="46"/>
+      <c r="E73" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F73" s="52"/>
+      <c r="F73" s="47"/>
       <c r="G73" s="26">
         <v>2</v>
       </c>
@@ -14601,16 +14601,16 @@
       </c>
     </row>
     <row r="74" spans="1:25" ht="16.8">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="53" t="s">
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="51" t="s">
+      <c r="D74" s="46"/>
+      <c r="E74" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F74" s="52"/>
+      <c r="F74" s="47"/>
       <c r="G74" s="26">
         <v>1</v>
       </c>
@@ -14670,16 +14670,16 @@
       </c>
     </row>
     <row r="75" spans="1:25" ht="16.8">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="53" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="51" t="s">
+      <c r="D75" s="46"/>
+      <c r="E75" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F75" s="52"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="26">
         <v>1</v>
       </c>
@@ -14739,16 +14739,16 @@
       </c>
     </row>
     <row r="76" spans="1:25" ht="16.8">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="57" t="s">
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="51" t="s">
+      <c r="D76" s="50"/>
+      <c r="E76" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F76" s="52"/>
+      <c r="F76" s="47"/>
       <c r="G76" s="26">
         <v>1</v>
       </c>
@@ -14806,16 +14806,16 @@
       </c>
     </row>
     <row r="77" spans="1:25" ht="16.8">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="53" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="51" t="s">
+      <c r="D77" s="46"/>
+      <c r="E77" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F77" s="52"/>
+      <c r="F77" s="47"/>
       <c r="G77" s="26">
         <v>1</v>
       </c>
@@ -14875,16 +14875,16 @@
       </c>
     </row>
     <row r="78" spans="1:25" ht="16.8">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="57" t="s">
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="51" t="s">
+      <c r="D78" s="50"/>
+      <c r="E78" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F78" s="52"/>
+      <c r="F78" s="47"/>
       <c r="G78" s="26">
         <v>1</v>
       </c>
@@ -14944,16 +14944,16 @@
       </c>
     </row>
     <row r="79" spans="1:25" ht="16.8">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="53" t="s">
+      <c r="A79" s="58"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="51" t="s">
+      <c r="D79" s="46"/>
+      <c r="E79" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="F79" s="52"/>
+      <c r="F79" s="47"/>
       <c r="G79" s="26">
         <v>1</v>
       </c>
@@ -15013,18 +15013,18 @@
       </c>
     </row>
     <row r="80" spans="1:25" ht="16.8">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44" t="s">
+      <c r="A80" s="58"/>
+      <c r="B80" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="53"/>
-      <c r="E80" s="51" t="s">
+      <c r="D80" s="46"/>
+      <c r="E80" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F80" s="52"/>
+      <c r="F80" s="47"/>
       <c r="G80" s="26">
         <v>1</v>
       </c>
@@ -15084,16 +15084,16 @@
       </c>
     </row>
     <row r="81" spans="1:25" ht="16.8">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="53" t="s">
+      <c r="A81" s="58"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="53"/>
-      <c r="E81" s="51" t="s">
+      <c r="D81" s="46"/>
+      <c r="E81" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F81" s="52"/>
+      <c r="F81" s="47"/>
       <c r="G81" s="26">
         <v>2</v>
       </c>
@@ -15153,16 +15153,16 @@
       </c>
     </row>
     <row r="82" spans="1:25" ht="16.8">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="57" t="s">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="51" t="s">
+      <c r="D82" s="50"/>
+      <c r="E82" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F82" s="52"/>
+      <c r="F82" s="47"/>
       <c r="G82" s="26">
         <v>2</v>
       </c>
@@ -15222,16 +15222,16 @@
       </c>
     </row>
     <row r="83" spans="1:25" ht="16.8">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="51" t="s">
+      <c r="D83" s="56"/>
+      <c r="E83" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F83" s="52"/>
+      <c r="F83" s="47"/>
       <c r="G83" s="26">
         <v>2</v>
       </c>
@@ -15291,16 +15291,16 @@
       </c>
     </row>
     <row r="84" spans="1:25" ht="16.8">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="53" t="s">
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="53"/>
-      <c r="E84" s="51" t="s">
+      <c r="D84" s="46"/>
+      <c r="E84" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F84" s="52"/>
+      <c r="F84" s="47"/>
       <c r="G84" s="26">
         <v>2</v>
       </c>
@@ -15360,16 +15360,16 @@
       </c>
     </row>
     <row r="85" spans="1:25" ht="16.8">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="53" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D85" s="53"/>
-      <c r="E85" s="51" t="s">
+      <c r="D85" s="46"/>
+      <c r="E85" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F85" s="52"/>
+      <c r="F85" s="47"/>
       <c r="G85" s="26">
         <v>2</v>
       </c>
@@ -15429,16 +15429,16 @@
       </c>
     </row>
     <row r="86" spans="1:25" ht="16.8">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="57" t="s">
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="51" t="s">
+      <c r="D86" s="50"/>
+      <c r="E86" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F86" s="52"/>
+      <c r="F86" s="47"/>
       <c r="G86" s="26">
         <v>2</v>
       </c>
@@ -15498,16 +15498,16 @@
       </c>
     </row>
     <row r="87" spans="1:25" ht="16.8">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="53" t="s">
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D87" s="53"/>
-      <c r="E87" s="51" t="s">
+      <c r="D87" s="46"/>
+      <c r="E87" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="F87" s="52"/>
+      <c r="F87" s="47"/>
       <c r="G87" s="26">
         <v>2</v>
       </c>
@@ -15567,18 +15567,18 @@
       </c>
     </row>
     <row r="88" spans="1:25" ht="16.8">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44" t="s">
+      <c r="A88" s="58"/>
+      <c r="B88" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="D88" s="53"/>
-      <c r="E88" s="52" t="s">
+      <c r="D88" s="46"/>
+      <c r="E88" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F88" s="52"/>
+      <c r="F88" s="47"/>
       <c r="G88" s="26">
         <v>5</v>
       </c>
@@ -15638,16 +15638,16 @@
       </c>
     </row>
     <row r="89" spans="1:25" ht="16.8">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="53" t="s">
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="D89" s="53"/>
-      <c r="E89" s="52" t="s">
+      <c r="D89" s="46"/>
+      <c r="E89" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="52"/>
+      <c r="F89" s="47"/>
       <c r="G89" s="26">
         <v>5</v>
       </c>
@@ -15707,21 +15707,21 @@
       </c>
     </row>
     <row r="90" spans="1:25" ht="16.8">
-      <c r="A90" s="44"/>
-      <c r="B90" s="64" t="s">
+      <c r="A90" s="58"/>
+      <c r="B90" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="43" t="s">
+      <c r="C90" s="70"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="43"/>
-      <c r="G90" s="52">
+      <c r="F90" s="57"/>
+      <c r="G90" s="47">
         <f>SUM(G15:G89)</f>
         <v>151</v>
       </c>
-      <c r="H90" s="52"/>
+      <c r="H90" s="47"/>
       <c r="I90" s="26">
         <f>SUM(I15:I89)</f>
         <v>160</v>
@@ -15792,19 +15792,19 @@
       </c>
     </row>
     <row r="91" spans="1:25" ht="16.8">
-      <c r="A91" s="44"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="43" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="43"/>
-      <c r="G91" s="52">
+      <c r="F91" s="57"/>
+      <c r="G91" s="47">
         <f>SUM(H15:H89)</f>
         <v>165</v>
       </c>
-      <c r="H91" s="52"/>
+      <c r="H91" s="47"/>
       <c r="I91" s="26">
         <f>SUM(I15:I89)+J17</f>
         <v>166</v>
@@ -15875,11 +15875,159 @@
       </c>
     </row>
     <row r="112" spans="3:4">
-      <c r="C112" s="63"/>
-      <c r="D112" s="63"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="172">
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="B90:D91"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -15904,154 +16052,6 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="B90:D91"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -16063,8 +16063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM113"/>
   <sheetViews>
-    <sheetView zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102:F102"/>
+    <sheetView tabSelected="1" topLeftCell="C105" zoomScale="64" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="AD126" sqref="AD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
@@ -16100,10 +16100,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="51" thickBot="1">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
+      <c r="A1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
       <c r="C1" s="39" t="s">
         <v>215</v>
       </c>
@@ -16113,10 +16113,10 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="17.399999999999999" thickBot="1">
-      <c r="A2" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="85"/>
+      <c r="A2" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="72"/>
       <c r="C2" s="13" t="s">
         <v>153</v>
       </c>
@@ -16126,10 +16126,10 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="17.399999999999999" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="16">
         <v>45968</v>
       </c>
@@ -16139,10 +16139,10 @@
       </c>
     </row>
     <row r="4" spans="1:39" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="16">
         <v>45998</v>
       </c>
@@ -16158,12 +16158,12 @@
       </c>
     </row>
     <row r="6" spans="1:39" ht="17.399999999999999" thickBot="1">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="86"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" spans="1:39" ht="17.399999999999999" thickBot="1">
       <c r="B7" s="21" t="s">
@@ -16250,10 +16250,10 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:39" ht="17.399999999999999" thickBot="1">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="23">
         <f ca="1">SUM(D8:D12)</f>
         <v>173</v>
@@ -16270,14 +16270,14 @@
       <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="87" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="88"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="25" t="s">
         <v>11</v>
       </c>
@@ -16379,18 +16379,18 @@
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="67" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="26">
         <v>10</v>
       </c>
@@ -16492,16 +16492,16 @@
       </c>
     </row>
     <row r="17" spans="1:39">
-      <c r="A17" s="46"/>
-      <c r="B17" s="57" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="55" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="26">
         <v>1</v>
       </c>
@@ -16603,12 +16603,12 @@
       </c>
     </row>
     <row r="18" spans="1:39">
-      <c r="A18" s="46"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="56"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -16646,16 +16646,16 @@
       <c r="AM18" s="26"/>
     </row>
     <row r="19" spans="1:39">
-      <c r="A19" s="46"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="55" t="s">
+      <c r="C19" s="76"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="26">
         <v>2</v>
       </c>
@@ -16757,18 +16757,18 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="17.25" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="55" t="s">
+      <c r="D20" s="50"/>
+      <c r="E20" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="52"/>
       <c r="G20" s="26">
         <v>1</v>
       </c>
@@ -16870,16 +16870,16 @@
       </c>
     </row>
     <row r="21" spans="1:39">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="57" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="55" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="52"/>
       <c r="G21" s="26">
         <v>2</v>
       </c>
@@ -16981,16 +16981,16 @@
       </c>
     </row>
     <row r="22" spans="1:39">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="57" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="55" t="s">
+      <c r="D22" s="50"/>
+      <c r="E22" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="26">
         <v>1</v>
       </c>
@@ -17092,16 +17092,16 @@
       </c>
     </row>
     <row r="23" spans="1:39">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="57" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="55" t="s">
+      <c r="D23" s="50"/>
+      <c r="E23" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="56"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="26">
         <v>1</v>
       </c>
@@ -17203,16 +17203,16 @@
       </c>
     </row>
     <row r="24" spans="1:39">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="49" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="55" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="26">
         <v>2</v>
       </c>
@@ -17314,16 +17314,16 @@
       </c>
     </row>
     <row r="25" spans="1:39">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="49" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="55" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="52"/>
       <c r="G25" s="26">
         <v>3</v>
       </c>
@@ -17425,16 +17425,16 @@
       </c>
     </row>
     <row r="26" spans="1:39">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="49" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="55" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="26">
         <v>2</v>
       </c>
@@ -17536,16 +17536,16 @@
       </c>
     </row>
     <row r="27" spans="1:39">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="49" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="55" t="s">
+      <c r="D27" s="56"/>
+      <c r="E27" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="52"/>
       <c r="G27" s="26">
         <v>1</v>
       </c>
@@ -17647,16 +17647,16 @@
       </c>
     </row>
     <row r="28" spans="1:39">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="55" t="s">
+      <c r="D28" s="56"/>
+      <c r="E28" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F28" s="56"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="26">
         <v>1</v>
       </c>
@@ -17758,16 +17758,16 @@
       </c>
     </row>
     <row r="29" spans="1:39">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="57" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="55" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F29" s="74"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="26">
         <v>1</v>
       </c>
@@ -17869,16 +17869,16 @@
       </c>
     </row>
     <row r="30" spans="1:39">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="57" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="55" t="s">
+      <c r="D30" s="50"/>
+      <c r="E30" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="F30" s="74"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="26">
         <v>1</v>
       </c>
@@ -17980,16 +17980,16 @@
       </c>
     </row>
     <row r="31" spans="1:39">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="57" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="55" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="26">
         <v>9</v>
       </c>
@@ -18091,12 +18091,12 @@
       </c>
     </row>
     <row r="32" spans="1:39">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="56"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -18134,18 +18134,18 @@
       <c r="AM32" s="26"/>
     </row>
     <row r="33" spans="1:39">
-      <c r="A33" s="46"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="55" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="26">
         <v>1</v>
       </c>
@@ -18247,16 +18247,16 @@
       </c>
     </row>
     <row r="34" spans="1:39">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="57" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="55" t="s">
+      <c r="D34" s="50"/>
+      <c r="E34" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="26">
         <v>2</v>
       </c>
@@ -18358,16 +18358,16 @@
       </c>
     </row>
     <row r="35" spans="1:39">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="57" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="55" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="26">
         <v>2</v>
       </c>
@@ -18469,16 +18469,16 @@
       </c>
     </row>
     <row r="36" spans="1:39">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="57" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="55" t="s">
+      <c r="D36" s="50"/>
+      <c r="E36" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="56"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="26">
         <v>1</v>
       </c>
@@ -18580,16 +18580,16 @@
       </c>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="49" t="s">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="55" t="s">
+      <c r="D37" s="56"/>
+      <c r="E37" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="26">
         <v>1</v>
       </c>
@@ -18691,16 +18691,16 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="57" t="s">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="55" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="26">
         <v>1</v>
       </c>
@@ -18802,16 +18802,16 @@
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="57" t="s">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="55" t="s">
+      <c r="D39" s="50"/>
+      <c r="E39" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="26">
         <v>1</v>
       </c>
@@ -18913,16 +18913,16 @@
       </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="49" t="s">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="55" t="s">
+      <c r="D40" s="56"/>
+      <c r="E40" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F40" s="56"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="26">
         <v>1</v>
       </c>
@@ -19024,16 +19024,16 @@
       </c>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="49" t="s">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="55" t="s">
+      <c r="D41" s="56"/>
+      <c r="E41" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="26">
         <v>1</v>
       </c>
@@ -19135,16 +19135,16 @@
       </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="57" t="s">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="55" t="s">
+      <c r="D42" s="50"/>
+      <c r="E42" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="26">
         <v>1</v>
       </c>
@@ -19246,16 +19246,16 @@
       </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="57" t="s">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D43" s="58"/>
-      <c r="E43" s="55" t="s">
+      <c r="D43" s="50"/>
+      <c r="E43" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F43" s="56"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="26">
         <v>1</v>
       </c>
@@ -19357,16 +19357,16 @@
       </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="57" t="s">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="55" t="s">
+      <c r="D44" s="50"/>
+      <c r="E44" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F44" s="56"/>
+      <c r="F44" s="52"/>
       <c r="G44" s="26">
         <v>7</v>
       </c>
@@ -19468,12 +19468,12 @@
       </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="56"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="52"/>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
@@ -19511,18 +19511,18 @@
       <c r="AM45" s="26"/>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46" s="46"/>
-      <c r="B46" s="45" t="s">
+      <c r="A46" s="60"/>
+      <c r="B46" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="55" t="s">
+      <c r="D46" s="50"/>
+      <c r="E46" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F46" s="56"/>
+      <c r="F46" s="52"/>
       <c r="G46" s="26">
         <v>2</v>
       </c>
@@ -19624,16 +19624,16 @@
       </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="57" t="s">
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="55" t="s">
+      <c r="D47" s="50"/>
+      <c r="E47" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F47" s="56"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="26">
         <v>1</v>
       </c>
@@ -19735,12 +19735,12 @@
       </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="56"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="52"/>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
@@ -19778,16 +19778,16 @@
       <c r="AM48" s="26"/>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="57" t="s">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="55" t="s">
+      <c r="D49" s="50"/>
+      <c r="E49" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F49" s="56"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="26">
         <v>2</v>
       </c>
@@ -19889,16 +19889,16 @@
       </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="57" t="s">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="55" t="s">
+      <c r="D50" s="50"/>
+      <c r="E50" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F50" s="56"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="26">
         <v>2</v>
       </c>
@@ -20000,16 +20000,16 @@
       </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="57" t="s">
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="55" t="s">
+      <c r="D51" s="50"/>
+      <c r="E51" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F51" s="56"/>
+      <c r="F51" s="52"/>
       <c r="G51" s="26">
         <v>2</v>
       </c>
@@ -20111,16 +20111,16 @@
       </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="57" t="s">
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="55" t="s">
+      <c r="D52" s="50"/>
+      <c r="E52" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F52" s="56"/>
+      <c r="F52" s="52"/>
       <c r="G52" s="26">
         <v>3</v>
       </c>
@@ -20222,16 +20222,16 @@
       </c>
     </row>
     <row r="53" spans="1:39">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="57" t="s">
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="58"/>
-      <c r="E53" s="55" t="s">
+      <c r="D53" s="50"/>
+      <c r="E53" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F53" s="56"/>
+      <c r="F53" s="52"/>
       <c r="G53" s="26">
         <v>1</v>
       </c>
@@ -20333,12 +20333,12 @@
       </c>
     </row>
     <row r="54" spans="1:39">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="56"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="52"/>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
@@ -20376,16 +20376,16 @@
       <c r="AM54" s="26"/>
     </row>
     <row r="55" spans="1:39">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="57" t="s">
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="58"/>
-      <c r="E55" s="55" t="s">
+      <c r="D55" s="50"/>
+      <c r="E55" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F55" s="56"/>
+      <c r="F55" s="52"/>
       <c r="G55" s="26">
         <v>2</v>
       </c>
@@ -20487,16 +20487,16 @@
       </c>
     </row>
     <row r="56" spans="1:39">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="57" t="s">
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="55" t="s">
+      <c r="D56" s="50"/>
+      <c r="E56" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="56"/>
+      <c r="F56" s="52"/>
       <c r="G56" s="26">
         <v>2</v>
       </c>
@@ -20598,16 +20598,16 @@
       </c>
     </row>
     <row r="57" spans="1:39">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="57" t="s">
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="55" t="s">
+      <c r="D57" s="50"/>
+      <c r="E57" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="56"/>
+      <c r="F57" s="52"/>
       <c r="G57" s="26">
         <v>1</v>
       </c>
@@ -20709,12 +20709,12 @@
       </c>
     </row>
     <row r="58" spans="1:39">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="56"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="52"/>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
       <c r="I58" s="26"/>
@@ -20752,16 +20752,16 @@
       <c r="AM58" s="26"/>
     </row>
     <row r="59" spans="1:39">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="57" t="s">
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="55" t="s">
+      <c r="D59" s="50"/>
+      <c r="E59" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F59" s="56"/>
+      <c r="F59" s="52"/>
       <c r="G59" s="26">
         <v>2</v>
       </c>
@@ -20863,16 +20863,16 @@
       </c>
     </row>
     <row r="60" spans="1:39">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="57" t="s">
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="58"/>
-      <c r="E60" s="55" t="s">
+      <c r="D60" s="50"/>
+      <c r="E60" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F60" s="56"/>
+      <c r="F60" s="52"/>
       <c r="G60" s="26">
         <v>2</v>
       </c>
@@ -20974,16 +20974,16 @@
       </c>
     </row>
     <row r="61" spans="1:39">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="57" t="s">
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="58"/>
-      <c r="E61" s="55" t="s">
+      <c r="D61" s="50"/>
+      <c r="E61" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F61" s="56"/>
+      <c r="F61" s="52"/>
       <c r="G61" s="26">
         <v>2</v>
       </c>
@@ -21085,16 +21085,16 @@
       </c>
     </row>
     <row r="62" spans="1:39">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="57" t="s">
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="58"/>
-      <c r="E62" s="55" t="s">
+      <c r="D62" s="50"/>
+      <c r="E62" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F62" s="56"/>
+      <c r="F62" s="52"/>
       <c r="G62" s="26">
         <v>2</v>
       </c>
@@ -21196,16 +21196,16 @@
       </c>
     </row>
     <row r="63" spans="1:39">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="57" t="s">
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="55" t="s">
+      <c r="D63" s="50"/>
+      <c r="E63" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F63" s="56"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="26">
         <v>2</v>
       </c>
@@ -21307,16 +21307,16 @@
       </c>
     </row>
     <row r="64" spans="1:39">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="57" t="s">
+      <c r="A64" s="60"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="55" t="s">
+      <c r="D64" s="50"/>
+      <c r="E64" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F64" s="56"/>
+      <c r="F64" s="52"/>
       <c r="G64" s="26">
         <v>2</v>
       </c>
@@ -21418,16 +21418,16 @@
       </c>
     </row>
     <row r="65" spans="1:39">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="57" t="s">
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="55" t="s">
+      <c r="D65" s="50"/>
+      <c r="E65" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="56"/>
+      <c r="F65" s="52"/>
       <c r="G65" s="26">
         <v>2</v>
       </c>
@@ -21529,16 +21529,16 @@
       </c>
     </row>
     <row r="66" spans="1:39">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="57" t="s">
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="55" t="s">
+      <c r="D66" s="50"/>
+      <c r="E66" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="56"/>
+      <c r="F66" s="52"/>
       <c r="G66" s="26">
         <v>2</v>
       </c>
@@ -21640,16 +21640,16 @@
       </c>
     </row>
     <row r="67" spans="1:39">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="57" t="s">
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="55" t="s">
+      <c r="D67" s="50"/>
+      <c r="E67" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F67" s="74"/>
+      <c r="F67" s="79"/>
       <c r="G67" s="26">
         <v>2</v>
       </c>
@@ -21751,16 +21751,16 @@
       </c>
     </row>
     <row r="68" spans="1:39">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="57" t="s">
+      <c r="A68" s="60"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="58"/>
-      <c r="E68" s="55" t="s">
+      <c r="D68" s="50"/>
+      <c r="E68" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F68" s="74"/>
+      <c r="F68" s="79"/>
       <c r="G68" s="26">
         <v>2</v>
       </c>
@@ -21862,16 +21862,16 @@
       </c>
     </row>
     <row r="69" spans="1:39">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="57" t="s">
+      <c r="A69" s="60"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="58"/>
-      <c r="E69" s="55" t="s">
+      <c r="D69" s="50"/>
+      <c r="E69" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="F69" s="74"/>
+      <c r="F69" s="79"/>
       <c r="G69" s="26">
         <v>2</v>
       </c>
@@ -21973,16 +21973,16 @@
       </c>
     </row>
     <row r="70" spans="1:39">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="57" t="s">
+      <c r="A70" s="60"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="58"/>
-      <c r="E70" s="55" t="s">
+      <c r="D70" s="50"/>
+      <c r="E70" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F70" s="74"/>
+      <c r="F70" s="79"/>
       <c r="G70" s="26">
         <v>2</v>
       </c>
@@ -22084,16 +22084,16 @@
       </c>
     </row>
     <row r="71" spans="1:39">
-      <c r="A71" s="46"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="57" t="s">
+      <c r="A71" s="60"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="58"/>
-      <c r="E71" s="55" t="s">
+      <c r="D71" s="50"/>
+      <c r="E71" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="F71" s="56"/>
+      <c r="F71" s="52"/>
       <c r="G71" s="26">
         <v>8</v>
       </c>
@@ -22195,12 +22195,12 @@
       </c>
     </row>
     <row r="72" spans="1:39">
-      <c r="A72" s="46"/>
-      <c r="B72" s="47"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="56"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="52"/>
       <c r="G72" s="26"/>
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
@@ -22260,18 +22260,18 @@
       </c>
     </row>
     <row r="73" spans="1:39">
-      <c r="A73" s="46"/>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="60"/>
+      <c r="B73" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="57" t="s">
+      <c r="C73" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="55" t="s">
+      <c r="D73" s="50"/>
+      <c r="E73" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F73" s="56"/>
+      <c r="F73" s="52"/>
       <c r="G73" s="26">
         <v>1</v>
       </c>
@@ -22373,16 +22373,16 @@
       </c>
     </row>
     <row r="74" spans="1:39">
-      <c r="A74" s="46"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="57" t="s">
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="D74" s="58"/>
-      <c r="E74" s="55" t="s">
+      <c r="D74" s="50"/>
+      <c r="E74" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F74" s="56"/>
+      <c r="F74" s="52"/>
       <c r="G74" s="26">
         <v>1</v>
       </c>
@@ -22484,16 +22484,16 @@
       </c>
     </row>
     <row r="75" spans="1:39">
-      <c r="A75" s="46"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="57" t="s">
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="55" t="s">
+      <c r="D75" s="50"/>
+      <c r="E75" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F75" s="56"/>
+      <c r="F75" s="52"/>
       <c r="G75" s="26">
         <v>2</v>
       </c>
@@ -22595,16 +22595,16 @@
       </c>
     </row>
     <row r="76" spans="1:39">
-      <c r="A76" s="46"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="57" t="s">
+      <c r="A76" s="60"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="55" t="s">
+      <c r="D76" s="50"/>
+      <c r="E76" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F76" s="56"/>
+      <c r="F76" s="52"/>
       <c r="G76" s="26">
         <v>2</v>
       </c>
@@ -22706,16 +22706,16 @@
       </c>
     </row>
     <row r="77" spans="1:39">
-      <c r="A77" s="46"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="57" t="s">
+      <c r="A77" s="60"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="D77" s="58"/>
-      <c r="E77" s="55" t="s">
+      <c r="D77" s="50"/>
+      <c r="E77" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F77" s="56"/>
+      <c r="F77" s="52"/>
       <c r="G77" s="26">
         <v>1</v>
       </c>
@@ -22817,16 +22817,16 @@
       </c>
     </row>
     <row r="78" spans="1:39">
-      <c r="A78" s="46"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="57" t="s">
+      <c r="A78" s="60"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="D78" s="58"/>
-      <c r="E78" s="55" t="s">
+      <c r="D78" s="50"/>
+      <c r="E78" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F78" s="56"/>
+      <c r="F78" s="52"/>
       <c r="G78" s="26">
         <v>1</v>
       </c>
@@ -22928,16 +22928,16 @@
       </c>
     </row>
     <row r="79" spans="1:39">
-      <c r="A79" s="46"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="57" t="s">
+      <c r="A79" s="60"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D79" s="58"/>
-      <c r="E79" s="55" t="s">
+      <c r="D79" s="50"/>
+      <c r="E79" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F79" s="56"/>
+      <c r="F79" s="52"/>
       <c r="G79" s="26">
         <v>1</v>
       </c>
@@ -23039,16 +23039,16 @@
       </c>
     </row>
     <row r="80" spans="1:39">
-      <c r="A80" s="46"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="57" t="s">
+      <c r="A80" s="60"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="55" t="s">
+      <c r="D80" s="50"/>
+      <c r="E80" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F80" s="56"/>
+      <c r="F80" s="52"/>
       <c r="G80" s="26">
         <v>1</v>
       </c>
@@ -23150,16 +23150,16 @@
       </c>
     </row>
     <row r="81" spans="1:39">
-      <c r="A81" s="46"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="57" t="s">
+      <c r="A81" s="60"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="55" t="s">
+      <c r="D81" s="50"/>
+      <c r="E81" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F81" s="56"/>
+      <c r="F81" s="52"/>
       <c r="G81" s="26">
         <v>1</v>
       </c>
@@ -23261,16 +23261,16 @@
       </c>
     </row>
     <row r="82" spans="1:39">
-      <c r="A82" s="46"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="57" t="s">
+      <c r="A82" s="60"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="55" t="s">
+      <c r="D82" s="50"/>
+      <c r="E82" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F82" s="56"/>
+      <c r="F82" s="52"/>
       <c r="G82" s="26">
         <v>1</v>
       </c>
@@ -23372,16 +23372,16 @@
       </c>
     </row>
     <row r="83" spans="1:39">
-      <c r="A83" s="46"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="57" t="s">
+      <c r="A83" s="60"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="55" t="s">
+      <c r="D83" s="50"/>
+      <c r="E83" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F83" s="56"/>
+      <c r="F83" s="52"/>
       <c r="G83" s="26">
         <v>1</v>
       </c>
@@ -23483,18 +23483,18 @@
       </c>
     </row>
     <row r="84" spans="1:39">
-      <c r="A84" s="46"/>
-      <c r="B84" s="45" t="s">
+      <c r="A84" s="60"/>
+      <c r="B84" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C84" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="55" t="s">
+      <c r="D84" s="50"/>
+      <c r="E84" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F84" s="56"/>
+      <c r="F84" s="52"/>
       <c r="G84" s="26">
         <v>1</v>
       </c>
@@ -23596,12 +23596,12 @@
       </c>
     </row>
     <row r="85" spans="1:39">
-      <c r="A85" s="46"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="56"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="52"/>
       <c r="G85" s="26"/>
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
@@ -23653,16 +23653,16 @@
       </c>
     </row>
     <row r="86" spans="1:39">
-      <c r="A86" s="46"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="57" t="s">
+      <c r="A86" s="60"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D86" s="58"/>
-      <c r="E86" s="55" t="s">
+      <c r="D86" s="50"/>
+      <c r="E86" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F86" s="56"/>
+      <c r="F86" s="52"/>
       <c r="G86" s="26">
         <v>2</v>
       </c>
@@ -23764,16 +23764,16 @@
       </c>
     </row>
     <row r="87" spans="1:39">
-      <c r="A87" s="46"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="57" t="s">
+      <c r="A87" s="60"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="58"/>
-      <c r="E87" s="55" t="s">
+      <c r="D87" s="50"/>
+      <c r="E87" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F87" s="56"/>
+      <c r="F87" s="52"/>
       <c r="G87" s="26">
         <v>2</v>
       </c>
@@ -23875,16 +23875,16 @@
       </c>
     </row>
     <row r="88" spans="1:39">
-      <c r="A88" s="46"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="57" t="s">
+      <c r="A88" s="60"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="55" t="s">
+      <c r="D88" s="50"/>
+      <c r="E88" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F88" s="56"/>
+      <c r="F88" s="52"/>
       <c r="G88" s="26">
         <v>1</v>
       </c>
@@ -23986,12 +23986,12 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="46"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="56"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="52"/>
       <c r="G89" s="26"/>
       <c r="H89" s="26"/>
       <c r="I89" s="26"/>
@@ -24029,16 +24029,16 @@
       <c r="AM89" s="26"/>
     </row>
     <row r="90" spans="1:39">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="57" t="s">
+      <c r="A90" s="60"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="D90" s="58"/>
-      <c r="E90" s="55" t="s">
+      <c r="D90" s="50"/>
+      <c r="E90" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F90" s="56"/>
+      <c r="F90" s="52"/>
       <c r="G90" s="26">
         <v>2</v>
       </c>
@@ -24140,16 +24140,16 @@
       </c>
     </row>
     <row r="91" spans="1:39">
-      <c r="A91" s="46"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="49" t="s">
+      <c r="A91" s="60"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="D91" s="50"/>
-      <c r="E91" s="55" t="s">
+      <c r="D91" s="56"/>
+      <c r="E91" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F91" s="56"/>
+      <c r="F91" s="52"/>
       <c r="G91" s="26">
         <v>2</v>
       </c>
@@ -24251,16 +24251,16 @@
       </c>
     </row>
     <row r="92" spans="1:39">
-      <c r="A92" s="46"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="49" t="s">
+      <c r="A92" s="60"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="55" t="s">
+      <c r="D92" s="56"/>
+      <c r="E92" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="56"/>
+      <c r="F92" s="52"/>
       <c r="G92" s="26">
         <v>2</v>
       </c>
@@ -24362,16 +24362,16 @@
       </c>
     </row>
     <row r="93" spans="1:39">
-      <c r="A93" s="46"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="49" t="s">
+      <c r="A93" s="60"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="55" t="s">
+      <c r="D93" s="56"/>
+      <c r="E93" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F93" s="56"/>
+      <c r="F93" s="52"/>
       <c r="G93" s="26">
         <v>2</v>
       </c>
@@ -24473,16 +24473,16 @@
       </c>
     </row>
     <row r="94" spans="1:39">
-      <c r="A94" s="46"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="57" t="s">
+      <c r="A94" s="60"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D94" s="58"/>
-      <c r="E94" s="55" t="s">
+      <c r="D94" s="50"/>
+      <c r="E94" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F94" s="56"/>
+      <c r="F94" s="52"/>
       <c r="G94" s="26">
         <v>2</v>
       </c>
@@ -24584,16 +24584,16 @@
       </c>
     </row>
     <row r="95" spans="1:39">
-      <c r="A95" s="46"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="57" t="s">
+      <c r="A95" s="60"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="D95" s="58"/>
-      <c r="E95" s="55" t="s">
+      <c r="D95" s="50"/>
+      <c r="E95" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F95" s="56"/>
+      <c r="F95" s="52"/>
       <c r="G95" s="26">
         <v>2</v>
       </c>
@@ -24695,16 +24695,16 @@
       </c>
     </row>
     <row r="96" spans="1:39">
-      <c r="A96" s="46"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="49" t="s">
+      <c r="A96" s="60"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="55" t="s">
+      <c r="D96" s="56"/>
+      <c r="E96" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="F96" s="56"/>
+      <c r="F96" s="52"/>
       <c r="G96" s="26">
         <v>2</v>
       </c>
@@ -24806,18 +24806,18 @@
       </c>
     </row>
     <row r="97" spans="1:39">
-      <c r="A97" s="46"/>
-      <c r="B97" s="45" t="s">
+      <c r="A97" s="60"/>
+      <c r="B97" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="57" t="s">
+      <c r="C97" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D97" s="58"/>
-      <c r="E97" s="71" t="s">
+      <c r="D97" s="50"/>
+      <c r="E97" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F97" s="72"/>
+      <c r="F97" s="81"/>
       <c r="G97" s="26">
         <v>1</v>
       </c>
@@ -24919,12 +24919,12 @@
       </c>
     </row>
     <row r="98" spans="1:39">
-      <c r="A98" s="46"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="72"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="81"/>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
@@ -24962,16 +24962,16 @@
       <c r="AM98" s="26"/>
     </row>
     <row r="99" spans="1:39">
-      <c r="A99" s="46"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="57" t="s">
+      <c r="A99" s="60"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="D99" s="58"/>
-      <c r="E99" s="71" t="s">
+      <c r="D99" s="50"/>
+      <c r="E99" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F99" s="72"/>
+      <c r="F99" s="81"/>
       <c r="G99" s="26">
         <v>2</v>
       </c>
@@ -25073,16 +25073,16 @@
       </c>
     </row>
     <row r="100" spans="1:39">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="57" t="s">
+      <c r="A100" s="60"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="D100" s="58"/>
-      <c r="E100" s="71" t="s">
+      <c r="D100" s="50"/>
+      <c r="E100" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F100" s="72"/>
+      <c r="F100" s="81"/>
       <c r="G100" s="26">
         <v>2</v>
       </c>
@@ -25184,16 +25184,16 @@
       </c>
     </row>
     <row r="101" spans="1:39">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="57" t="s">
+      <c r="A101" s="60"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="58"/>
-      <c r="E101" s="71" t="s">
+      <c r="D101" s="50"/>
+      <c r="E101" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F101" s="72"/>
+      <c r="F101" s="81"/>
       <c r="G101" s="26">
         <v>3</v>
       </c>
@@ -25295,12 +25295,12 @@
       </c>
     </row>
     <row r="102" spans="1:39">
-      <c r="A102" s="46"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="72"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="81"/>
       <c r="G102" s="26"/>
       <c r="H102" s="26"/>
       <c r="I102" s="26"/>
@@ -25338,16 +25338,16 @@
       <c r="AM102" s="26"/>
     </row>
     <row r="103" spans="1:39">
-      <c r="A103" s="46"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="57" t="s">
+      <c r="A103" s="60"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="D103" s="58"/>
-      <c r="E103" s="71" t="s">
+      <c r="D103" s="50"/>
+      <c r="E103" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F103" s="72"/>
+      <c r="F103" s="81"/>
       <c r="G103" s="26">
         <v>2</v>
       </c>
@@ -25449,16 +25449,16 @@
       </c>
     </row>
     <row r="104" spans="1:39">
-      <c r="A104" s="46"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="57" t="s">
+      <c r="A104" s="60"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="D104" s="58"/>
-      <c r="E104" s="71" t="s">
+      <c r="D104" s="50"/>
+      <c r="E104" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F104" s="72"/>
+      <c r="F104" s="81"/>
       <c r="G104" s="26">
         <v>2</v>
       </c>
@@ -25560,16 +25560,16 @@
       </c>
     </row>
     <row r="105" spans="1:39">
-      <c r="A105" s="46"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="57" t="s">
+      <c r="A105" s="60"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D105" s="58"/>
-      <c r="E105" s="71" t="s">
+      <c r="D105" s="50"/>
+      <c r="E105" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F105" s="72"/>
+      <c r="F105" s="81"/>
       <c r="G105" s="26">
         <v>2</v>
       </c>
@@ -25671,16 +25671,16 @@
       </c>
     </row>
     <row r="106" spans="1:39">
-      <c r="A106" s="46"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="57" t="s">
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D106" s="58"/>
-      <c r="E106" s="71" t="s">
+      <c r="D106" s="50"/>
+      <c r="E106" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F106" s="72"/>
+      <c r="F106" s="81"/>
       <c r="G106" s="26">
         <v>2</v>
       </c>
@@ -25782,16 +25782,16 @@
       </c>
     </row>
     <row r="107" spans="1:39">
-      <c r="A107" s="46"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="73" t="s">
+      <c r="A107" s="60"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="D107" s="58"/>
-      <c r="E107" s="71" t="s">
+      <c r="D107" s="50"/>
+      <c r="E107" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F107" s="72"/>
+      <c r="F107" s="81"/>
       <c r="G107" s="26">
         <v>2</v>
       </c>
@@ -25893,16 +25893,16 @@
       </c>
     </row>
     <row r="108" spans="1:39">
-      <c r="A108" s="46"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="73" t="s">
+      <c r="A108" s="60"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="D108" s="58"/>
-      <c r="E108" s="71" t="s">
+      <c r="D108" s="50"/>
+      <c r="E108" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F108" s="72"/>
+      <c r="F108" s="81"/>
       <c r="G108" s="26">
         <v>2</v>
       </c>
@@ -26004,16 +26004,16 @@
       </c>
     </row>
     <row r="109" spans="1:39">
-      <c r="A109" s="46"/>
-      <c r="B109" s="47"/>
-      <c r="C109" s="73" t="s">
+      <c r="A109" s="60"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="D109" s="58"/>
-      <c r="E109" s="71" t="s">
+      <c r="D109" s="50"/>
+      <c r="E109" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="F109" s="72"/>
+      <c r="F109" s="81"/>
       <c r="G109" s="26">
         <v>2</v>
       </c>
@@ -26115,18 +26115,18 @@
       </c>
     </row>
     <row r="110" spans="1:39">
-      <c r="A110" s="46"/>
-      <c r="B110" s="90" t="s">
+      <c r="A110" s="60"/>
+      <c r="B110" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="C110" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="D110" s="58"/>
-      <c r="E110" s="75" t="s">
+      <c r="D110" s="50"/>
+      <c r="E110" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="F110" s="72"/>
+      <c r="F110" s="81"/>
       <c r="G110" s="26">
         <v>5</v>
       </c>
@@ -26228,16 +26228,16 @@
       </c>
     </row>
     <row r="111" spans="1:39">
-      <c r="A111" s="46"/>
-      <c r="B111" s="47"/>
-      <c r="C111" s="57" t="s">
+      <c r="A111" s="60"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="D111" s="58"/>
-      <c r="E111" s="75" t="s">
+      <c r="D111" s="50"/>
+      <c r="E111" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="F111" s="72"/>
+      <c r="F111" s="81"/>
       <c r="G111" s="26">
         <v>5</v>
       </c>
@@ -26339,21 +26339,21 @@
       </c>
     </row>
     <row r="112" spans="1:39">
-      <c r="A112" s="46"/>
-      <c r="B112" s="78" t="s">
+      <c r="A112" s="60"/>
+      <c r="B112" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C112" s="79"/>
-      <c r="D112" s="80"/>
-      <c r="E112" s="76" t="s">
+      <c r="C112" s="86"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F112" s="77"/>
-      <c r="G112" s="67">
+      <c r="F112" s="84"/>
+      <c r="G112" s="66">
         <f>SUM(G16:G111)</f>
         <v>173</v>
       </c>
-      <c r="H112" s="56"/>
+      <c r="H112" s="52"/>
       <c r="I112" s="26">
         <f t="shared" ref="I112:AM112" si="0">SUM(I16:I111)</f>
         <v>179</v>
@@ -26480,19 +26480,19 @@
       </c>
     </row>
     <row r="113" spans="1:39">
-      <c r="A113" s="47"/>
-      <c r="B113" s="81"/>
-      <c r="C113" s="82"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="76" t="s">
+      <c r="A113" s="61"/>
+      <c r="B113" s="88"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="90"/>
+      <c r="E113" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="77"/>
-      <c r="G113" s="67">
+      <c r="F113" s="84"/>
+      <c r="G113" s="66">
         <f>SUM(H16:H111)</f>
         <v>181</v>
       </c>
-      <c r="H113" s="56"/>
+      <c r="H113" s="52"/>
       <c r="I113" s="26">
         <f t="shared" ref="I113:Z113" si="1">SUM(I16:I111)</f>
         <v>179</v>
@@ -26620,6 +26620,195 @@
     </row>
   </sheetData>
   <mergeCells count="213">
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="B112:D113"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B20:B32"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -26644,195 +26833,6 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B20:B32"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="B112:D113"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
